--- a/ExcelBill/BL001.xlsx
+++ b/ExcelBill/BL001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="32">
   <si>
     <t/>
   </si>
@@ -35,7 +35,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>21/04/2022</t>
+    <t>22/04/2022</t>
   </si>
   <si>
     <t>Staff:</t>
@@ -68,25 +68,46 @@
     <t>1.</t>
   </si>
   <si>
-    <t>Pearl Black Tea</t>
+    <t>Brown Sugar Milk Tea</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Size: S - Status: COLD</t>
   </si>
   <si>
     <t xml:space="preserve"> - Golden Pearl</t>
   </si>
   <si>
+    <t xml:space="preserve"> - Brown Sugar Pearl</t>
+  </si>
+  <si>
     <t xml:space="preserve"> - Konjac Caramel Jelly</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Diamond Jelly</t>
+    <t xml:space="preserve"> - Pudding</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Red Bean</t>
   </si>
   <si>
     <t>2.</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Fruit Diamond Jelly</t>
-  </si>
-  <si>
-    <t>Total:  258000.0</t>
+    <t>Kumquat Yogurt</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Received:</t>
+  </si>
+  <si>
+    <t>Excess Cash:</t>
+  </si>
+  <si>
+    <t>Hotline: 19002209</t>
+  </si>
+  <si>
+    <t>Thank You Please Come Again!</t>
   </si>
 </sst>
 </file>
@@ -94,7 +115,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -140,16 +161,35 @@
       <sz val="11.0"/>
       <i val="true"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
     </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="64"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -157,11 +197,362 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double"/>
+    </border>
+    <border>
+      <left style="double"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="8"/>
+      </left>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double"/>
+      <top style="double"/>
+    </border>
+    <border>
+      <left style="double"/>
+      <top style="double"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="8"/>
+      </left>
+      <top style="double"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="double"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="double">
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="double"/>
+    </border>
+    <border>
+      <top style="double"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <top style="double"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="double"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="double">
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="double"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="double"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="double"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="double"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="double">
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="double"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="double"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center"/>
@@ -183,229 +574,401 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" t="s" s="18">
         <v>1</v>
       </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="2">
+      <c r="A2" t="s" s="12">
         <v>2</v>
       </c>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="13"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="3">
+      <c r="A4" t="s" s="14">
         <v>3</v>
       </c>
+      <c r="I4" s="10"/>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="3">
+      <c r="A5" t="s" s="14">
         <v>4</v>
       </c>
+      <c r="I5" s="10"/>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="3">
+      <c r="A6" t="s" s="14">
         <v>5</v>
       </c>
+      <c r="I6" s="10"/>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="4">
+      <c r="A7" t="s" s="15">
         <v>6</v>
       </c>
       <c r="B7" t="s" s="5">
         <v>7</v>
       </c>
+      <c r="I7" s="10"/>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="4">
+      <c r="A8" t="s" s="15">
         <v>8</v>
       </c>
       <c r="B8" t="s" s="5">
         <v>9</v>
       </c>
+      <c r="I8" s="10"/>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="4">
+      <c r="A9" t="s" s="15">
         <v>10</v>
       </c>
       <c r="B9" t="s" s="5">
         <v>11</v>
       </c>
+      <c r="I9" s="10"/>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="4">
+      <c r="A10" t="s" s="15">
         <v>12</v>
       </c>
+      <c r="B10" t="s" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="13"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="6">
+      <c r="A12" t="s" s="16">
         <v>13</v>
       </c>
       <c r="B12" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="H12" t="s" s="6">
+      <c r="F12" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="I12" t="s" s="6">
+      <c r="G12" t="s" s="6">
         <v>16</v>
       </c>
+      <c r="I12" s="10"/>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="7">
+      <c r="A13" t="s" s="17">
         <v>17</v>
       </c>
       <c r="B13" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="H13" t="n" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="I13" t="n" s="7">
-        <v>90000.0</v>
-      </c>
+      <c r="F13" t="n" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G13" t="n" s="7">
+        <v>252000.0</v>
+      </c>
+      <c r="I13" s="10"/>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="8">
+      <c r="A14" s="13"/>
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="H14" t="n" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I14" t="n" s="8">
-        <v>6000.0</v>
-      </c>
+      <c r="I14" s="10"/>
     </row>
     <row r="15">
+      <c r="A15" s="13"/>
       <c r="B15" t="s" s="8">
         <v>20</v>
       </c>
-      <c r="H15" t="n" s="8">
+      <c r="F15" t="n" s="8">
         <v>1.0</v>
       </c>
-      <c r="I15" t="n" s="8">
-        <v>8000.0</v>
-      </c>
+      <c r="G15" t="n" s="8">
+        <v>6000.0</v>
+      </c>
+      <c r="I15" s="10"/>
     </row>
     <row r="16">
+      <c r="A16" s="13"/>
       <c r="B16" t="s" s="8">
         <v>21</v>
       </c>
-      <c r="H16" t="n" s="8">
+      <c r="F16" t="n" s="8">
         <v>1.0</v>
       </c>
-      <c r="I16" t="n" s="8">
+      <c r="G16" t="n" s="8">
+        <v>8000.0</v>
+      </c>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="13"/>
+      <c r="B17" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="F17" t="n" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="G17" t="n" s="8">
+        <v>8000.0</v>
+      </c>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="13"/>
+      <c r="B18" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="F18" t="n" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="G18" t="n" s="8">
+        <v>12000.0</v>
+      </c>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="13"/>
+      <c r="B19" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="F19" t="n" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="G19" t="n" s="8">
+        <v>10000.0</v>
+      </c>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="17">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="F20" t="n" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G20" t="n" s="7">
+        <v>21000.0</v>
+      </c>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="13"/>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="13"/>
+      <c r="B22" t="s" s="8">
+        <v>20</v>
+      </c>
+      <c r="F22" t="n" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="G22" t="n" s="8">
         <v>6000.0</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="7">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="H17" t="n" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="I17" t="n" s="7">
-        <v>168000.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="H18" t="n" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I18" t="n" s="8">
-        <v>6000.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" t="s" s="8">
-        <v>20</v>
-      </c>
-      <c r="H19" t="n" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I19" t="n" s="8">
-        <v>8000.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="H20" t="n" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I20" t="n" s="8">
-        <v>6000.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="H21" t="n" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I21" t="n" s="8">
-        <v>6000.0</v>
-      </c>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="13"/>
+      <c r="I23" s="10"/>
     </row>
     <row r="24">
-      <c r="I24" t="s">
-        <v>24</v>
-      </c>
+      <c r="A24" s="13"/>
+      <c r="F24" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="H24" t="n" s="9">
+        <v>273000.0</v>
+      </c>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="13"/>
+      <c r="F25" t="s" s="4">
+        <v>28</v>
+      </c>
+      <c r="H25" t="n" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="13"/>
+      <c r="F26" t="s" s="4">
+        <v>29</v>
+      </c>
+      <c r="H26" t="n" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="13"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="13"/>
+      <c r="C28" t="s" s="6">
+        <v>30</v>
+      </c>
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="13"/>
+      <c r="C29" t="s" s="6">
+        <v>31</v>
+      </c>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="21"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="23"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="A30:I30"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
